--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18893.6</v>
+        <v>40909.34</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2699.09</v>
+        <v>4090.93</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9475.83</v>
+        <v>9484.309999999999</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1608.24</v>
+        <v>1607.49</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5927.31</v>
+        <v>5920.03</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>946.0599999999999</v>
+        <v>700.39</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.16</v>
+        <v>932.63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22264.49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +436,76 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40909.34</v>
+        <v>9497.549999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9291.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4090.93</v>
+        <v>1603.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1621.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9484.309999999999</v>
-      </c>
+        <v>5924.09</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1607.49</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5920.03</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -499,6 +517,9 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -509,6 +530,9 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -517,7 +541,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>700.39</v>
+        <v>147.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>158.17</v>
       </c>
     </row>
     <row r="10">
@@ -527,37 +554,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>932.63</v>
+        <v>964.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>930.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21312.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21680.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22264.49</v>
+        <v>3945.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3742.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39450.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33682.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,155 +443,121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9497.549999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9291.27</v>
+        <v>39597.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1603.64</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1621.65</v>
+        <v>3959.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5924.09</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>9291.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+        <v>1621.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>5914.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.69</v>
-      </c>
-      <c r="C9" t="n">
-        <v>158.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.84</v>
-      </c>
-      <c r="C10" t="n">
-        <v>930.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21312.51</v>
-      </c>
-      <c r="C11" t="n">
-        <v>21680.31</v>
+        <v>158.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3945.03</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3742.49</v>
+        <v>930.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39450.32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33682.39</v>
+        <v>21680.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,162 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39597.35</v>
+        <v>9291.27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9303.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3959.73</v>
+        <v>1621.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1503.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9291.27</v>
+        <v>5914.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5920.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.65</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5914.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>158.17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>174.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>930.99</v>
+      </c>
+      <c r="C10" t="n">
+        <v>931.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.17</v>
+        <v>21680.31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21273.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.99</v>
+        <v>3959.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4888.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21680.31</v>
+        <v>39597.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39106.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>9303.52</v>
       </c>
+      <c r="D2" t="n">
+        <v>9292.91</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>1503.25</v>
       </c>
+      <c r="D3" t="n">
+        <v>1570.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>5920.19</v>
       </c>
+      <c r="D4" t="n">
+        <v>5929.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
         <v>0</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
         <v>0</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -531,6 +554,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -544,6 +570,9 @@
       <c r="C9" t="n">
         <v>174.3</v>
       </c>
+      <c r="D9" t="n">
+        <v>182.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>931.88</v>
       </c>
+      <c r="D10" t="n">
+        <v>972.3200000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -570,6 +602,9 @@
       <c r="C11" t="n">
         <v>21273.02</v>
       </c>
+      <c r="D11" t="n">
+        <v>21584.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -583,6 +618,9 @@
       <c r="C12" t="n">
         <v>4888.27</v>
       </c>
+      <c r="D12" t="n">
+        <v>3953.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -595,6 +633,9 @@
       </c>
       <c r="C13" t="n">
         <v>39106.16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39531.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>9292.91</v>
       </c>
+      <c r="E2" t="n">
+        <v>9284.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>1570.49</v>
       </c>
+      <c r="E3" t="n">
+        <v>1491.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>5929.09</v>
       </c>
+      <c r="E4" t="n">
+        <v>5039.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -557,6 +580,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -573,6 +599,9 @@
       <c r="D9" t="n">
         <v>182.2</v>
       </c>
+      <c r="E9" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -589,6 +618,9 @@
       <c r="D10" t="n">
         <v>972.3200000000001</v>
       </c>
+      <c r="E10" t="n">
+        <v>945.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -605,6 +637,9 @@
       <c r="D11" t="n">
         <v>21584.28</v>
       </c>
+      <c r="E11" t="n">
+        <v>22397.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -621,6 +656,9 @@
       <c r="D12" t="n">
         <v>3953.13</v>
       </c>
+      <c r="E12" t="n">
+        <v>3934.69</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -636,6 +674,9 @@
       </c>
       <c r="D13" t="n">
         <v>39531.29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39346.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>9284.17</v>
       </c>
+      <c r="F2" t="n">
+        <v>9302.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>1491.46</v>
       </c>
+      <c r="F3" t="n">
+        <v>1596.82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>5039.62</v>
       </c>
+      <c r="F4" t="n">
+        <v>1490.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +584,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -583,6 +606,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -602,6 +628,9 @@
       <c r="E9" t="n">
         <v>188.1</v>
       </c>
+      <c r="F9" t="n">
+        <v>178.51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -621,6 +650,9 @@
       <c r="E10" t="n">
         <v>945.64</v>
       </c>
+      <c r="F10" t="n">
+        <v>938.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -640,6 +672,9 @@
       <c r="E11" t="n">
         <v>22397.9</v>
       </c>
+      <c r="F11" t="n">
+        <v>22787.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -659,6 +694,9 @@
       <c r="E12" t="n">
         <v>3934.69</v>
       </c>
+      <c r="F12" t="n">
+        <v>3629.36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -677,6 +715,9 @@
       </c>
       <c r="E13" t="n">
         <v>39346.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36293.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>9302.1</v>
       </c>
+      <c r="G2" t="n">
+        <v>9281.700000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>1596.82</v>
       </c>
+      <c r="G3" t="n">
+        <v>1531.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>1490.81</v>
       </c>
+      <c r="G4" t="n">
+        <v>1502.51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -587,6 +607,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -609,6 +632,9 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -631,6 +657,9 @@
       <c r="F9" t="n">
         <v>178.51</v>
       </c>
+      <c r="G9" t="n">
+        <v>166.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -653,6 +682,9 @@
       <c r="F10" t="n">
         <v>938.21</v>
       </c>
+      <c r="G10" t="n">
+        <v>905.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -675,6 +707,9 @@
       <c r="F11" t="n">
         <v>22787.19</v>
       </c>
+      <c r="G11" t="n">
+        <v>21314.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -697,6 +732,9 @@
       <c r="F12" t="n">
         <v>3629.36</v>
       </c>
+      <c r="G12" t="n">
+        <v>3470.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -718,6 +756,9 @@
       </c>
       <c r="F13" t="n">
         <v>36293.64</v>
+      </c>
+      <c r="G13" t="n">
+        <v>34701.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>9281.700000000001</v>
       </c>
+      <c r="H2" t="n">
+        <v>9296.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1531.26</v>
       </c>
+      <c r="H3" t="n">
+        <v>1625.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>1502.51</v>
       </c>
+      <c r="H4" t="n">
+        <v>1490.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -610,6 +630,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -635,6 +658,9 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -660,6 +686,9 @@
       <c r="G9" t="n">
         <v>166.06</v>
       </c>
+      <c r="H9" t="n">
+        <v>162.55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -685,6 +714,9 @@
       <c r="G10" t="n">
         <v>905.14</v>
       </c>
+      <c r="H10" t="n">
+        <v>976.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -710,6 +742,9 @@
       <c r="G11" t="n">
         <v>21314.77</v>
       </c>
+      <c r="H11" t="n">
+        <v>21221.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -735,6 +770,9 @@
       <c r="G12" t="n">
         <v>3470.14</v>
       </c>
+      <c r="H12" t="n">
+        <v>3477.26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -759,6 +797,9 @@
       </c>
       <c r="G13" t="n">
         <v>34701.44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34772.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>9296.49</v>
       </c>
+      <c r="I2" t="n">
+        <v>9289.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>1625.57</v>
       </c>
+      <c r="I3" t="n">
+        <v>1569.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>1490.44</v>
       </c>
+      <c r="I4" t="n">
+        <v>1472.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -633,6 +653,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -661,6 +684,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -689,6 +715,9 @@
       <c r="H9" t="n">
         <v>162.55</v>
       </c>
+      <c r="I9" t="n">
+        <v>142.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -717,6 +746,9 @@
       <c r="H10" t="n">
         <v>976.02</v>
       </c>
+      <c r="I10" t="n">
+        <v>945.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -745,6 +777,9 @@
       <c r="H11" t="n">
         <v>21221.49</v>
       </c>
+      <c r="I11" t="n">
+        <v>21284.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -773,6 +808,9 @@
       <c r="H12" t="n">
         <v>3477.26</v>
       </c>
+      <c r="I12" t="n">
+        <v>3470.42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -800,6 +838,9 @@
       </c>
       <c r="H13" t="n">
         <v>34772.56</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34704.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>9289.82</v>
       </c>
+      <c r="J2" t="n">
+        <v>9290.450000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>1569.94</v>
       </c>
+      <c r="J3" t="n">
+        <v>1579.63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,7 @@
       <c r="I4" t="n">
         <v>1472.75</v>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +610,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +642,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +674,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -687,6 +708,9 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -718,6 +742,9 @@
       <c r="I9" t="n">
         <v>142.37</v>
       </c>
+      <c r="J9" t="n">
+        <v>188.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -749,6 +776,9 @@
       <c r="I10" t="n">
         <v>945.13</v>
       </c>
+      <c r="J10" t="n">
+        <v>960.62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -780,6 +810,9 @@
       <c r="I11" t="n">
         <v>21284.21</v>
       </c>
+      <c r="J11" t="n">
+        <v>22278.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -811,6 +844,9 @@
       <c r="I12" t="n">
         <v>3470.42</v>
       </c>
+      <c r="J12" t="n">
+        <v>3810.84</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -841,6 +877,9 @@
       </c>
       <c r="I13" t="n">
         <v>34704.22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34297.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>9290.450000000001</v>
       </c>
+      <c r="K2" t="n">
+        <v>9283.610000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>1579.63</v>
       </c>
+      <c r="K3" t="n">
+        <v>1615.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +590,7 @@
         <v>1472.75</v>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -613,6 +625,9 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +660,9 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +695,9 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +732,9 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -745,6 +769,9 @@
       <c r="J9" t="n">
         <v>188.18</v>
       </c>
+      <c r="K9" t="n">
+        <v>178.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -779,6 +806,9 @@
       <c r="J10" t="n">
         <v>960.62</v>
       </c>
+      <c r="K10" t="n">
+        <v>937.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +843,9 @@
       <c r="J11" t="n">
         <v>22278.66</v>
       </c>
+      <c r="K11" t="n">
+        <v>22939.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -847,6 +880,9 @@
       <c r="J12" t="n">
         <v>3810.84</v>
       </c>
+      <c r="K12" t="n">
+        <v>3883.93</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +916,9 @@
       </c>
       <c r="J13" t="n">
         <v>34297.54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34955.35</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>9283.610000000001</v>
       </c>
+      <c r="L2" t="n">
+        <v>9320.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>1615.29</v>
       </c>
+      <c r="L3" t="n">
+        <v>1596.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,6 +602,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -628,6 +640,9 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +678,9 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -698,6 +716,9 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -735,6 +756,9 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -772,6 +796,7 @@
       <c r="K9" t="n">
         <v>178.82</v>
       </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +834,9 @@
       <c r="K10" t="n">
         <v>937.99</v>
       </c>
+      <c r="L10" t="n">
+        <v>915.5700000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -846,6 +874,9 @@
       <c r="K11" t="n">
         <v>22939.64</v>
       </c>
+      <c r="L11" t="n">
+        <v>25391.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -883,6 +914,9 @@
       <c r="K12" t="n">
         <v>3883.93</v>
       </c>
+      <c r="L12" t="n">
+        <v>4653.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -919,6 +953,9 @@
       </c>
       <c r="K13" t="n">
         <v>34955.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37224.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MOLA.xlsx
+++ b/backend/src/excel_handler/files/MOLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>9320.83</v>
       </c>
+      <c r="M2" t="n">
+        <v>9325.629999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +576,9 @@
       </c>
       <c r="L3" t="n">
         <v>1596.12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1586.7</v>
       </c>
     </row>
     <row r="4">
@@ -603,6 +614,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -643,6 +655,9 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -681,6 +696,9 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -719,6 +737,9 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -759,6 +780,9 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -797,6 +821,7 @@
         <v>178.82</v>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -837,6 +862,9 @@
       <c r="L10" t="n">
         <v>915.5700000000001</v>
       </c>
+      <c r="M10" t="n">
+        <v>917.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -877,6 +905,9 @@
       <c r="L11" t="n">
         <v>25391.77</v>
       </c>
+      <c r="M11" t="n">
+        <v>26215.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -917,6 +948,9 @@
       <c r="L12" t="n">
         <v>4653.04</v>
       </c>
+      <c r="M12" t="n">
+        <v>4755.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="L13" t="n">
         <v>37224.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>38045.24</v>
       </c>
     </row>
   </sheetData>
